--- a/forms/Form-1IN.xlsx
+++ b/forms/Form-1IN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\Data dissemination\iotc-reference-data\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37A4AF-240D-4819-AA83-A8C2EEC6F029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340D3C4F-A2F7-4F72-8616-CEA8914FE584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -90,9 +90,6 @@
     <t>Source coverage</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Reporting entity</t>
+  </si>
+  <si>
+    <t>1.0.0-legacy</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1267,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -1291,14 +1291,14 @@
         <v>14</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="30" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H4" s="34"/>
     </row>
@@ -1453,7 +1453,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="21"/>
@@ -1533,7 +1533,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gu7JKCf5sJVC9GIjMSQ45Z2J1O1QS3HjOQGK5IjxhHjUzV0gY1/Jpo/IUKWMV95eHBOQXMI3r/eNpjxRVBulAQ==" saltValue="TspT17KM4W5wW5IK4NJ1+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="T0P/xpdz/hoPAqRTiCs12OOLhUHKqeLezV6nlF5PfRhkR+6S4/gR5FoET8g2J6UbVykGHLEYj4vBhGgpzoA3bQ==" saltValue="+LK7v4U9x/O1hi6gPTbq1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -1635,32 +1635,32 @@
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="80"/>
       <c r="G4" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="J4" s="81" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>25</v>
       </c>
       <c r="K4" s="82"/>
       <c r="L4" s="83"/>
       <c r="M4" s="82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="82"/>
       <c r="O4" s="83"/>
@@ -1670,7 +1670,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="60" t="s">
         <v>15</v>
@@ -1679,34 +1679,34 @@
         <v>15</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="64" t="s">
-        <v>28</v>
-      </c>
       <c r="M5" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="64" t="s">
         <v>27</v>
-      </c>
-      <c r="O5" s="64" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2069,7 +2069,7 @@
       <c r="F55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vsMzJ+JLwPXpudKB4PUuJpfovNIUA9OIMZ1rUfpwlcoGwY27CzSyEwvU5I3ObMPos4vFbIe9eLwpJmaRJC7k9w==" saltValue="SGJAwcB0sa1bvSjmX+SrXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8Zc0gurgzUM6J4u5XU1NVUfdyU4Ka15ctwk21aGdI1tvLjMqVu0O1UyBxmQe1T9r8LSS4dDN86wSR1IcGz9mFQ==" saltValue="gzlsa+6KZecehh+NRq8ibw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>

--- a/forms/Form-1IN.xlsx
+++ b/forms/Form-1IN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340D3C4F-A2F7-4F72-8616-CEA8914FE584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1620E20-0B50-48E2-83DA-1D88DCC9360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -938,7 +938,15 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2069,7 +2077,7 @@
       <c r="F55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8Zc0gurgzUM6J4u5XU1NVUfdyU4Ka15ctwk21aGdI1tvLjMqVu0O1UyBxmQe1T9r8LSS4dDN86wSR1IcGz9mFQ==" saltValue="gzlsa+6KZecehh+NRq8ibw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UajPcvWuj9LPcQqqPaWfxVmU65iRpFDHdhYbBRVqC1drnTmjAZjKMIjJ+mOCga8vMT7PV6RLRdtc4DkavLdh8w==" saltValue="/nH11upjL9EPQYGes39sVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -2077,6 +2085,11 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="B2:O3"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:O1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:C5 E5 D5" xr:uid="{4028DFA7-3B9E-4D78-9BE4-B9C30D52F4E5}">
       <formula1>"&lt;0&gt;0"</formula1>

--- a/forms/Form-1IN.xlsx
+++ b/forms/Form-1IN.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1620E20-0B50-48E2-83DA-1D88DCC9360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA04B2-FBA1-4CB7-9544-113EBFC4CAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1566,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/forms/Form-1IN.xlsx
+++ b/forms/Form-1IN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA04B2-FBA1-4CB7-9544-113EBFC4CAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55AC66F-A286-4819-B9B2-0A31AAFEFA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1258,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/forms/Form-1IN.xlsx
+++ b/forms/Form-1IN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55AC66F-A286-4819-B9B2-0A31AAFEFA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E566BB-8B13-43BD-99A3-C662EA0B0021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>General information</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>Submission information</t>
   </si>
   <si>
-    <t>Finalization date</t>
-  </si>
-  <si>
     <t>Submission date</t>
   </si>
   <si>
@@ -139,6 +130,15 @@
   </si>
   <si>
     <t>1.0.0-legacy</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Finalisation date</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -1296,17 +1296,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
       <c r="C4" s="30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="34"/>
     </row>
@@ -1322,7 +1322,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -1347,7 +1347,7 @@
       <c r="D8" s="70"/>
       <c r="E8" s="21"/>
       <c r="F8" s="70" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G8" s="70"/>
       <c r="H8" s="17"/>
@@ -1368,12 +1368,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="19" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
-        <v>3</v>
+      <c r="F10" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="17"/>
@@ -1390,7 +1390,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="21"/>
@@ -1401,7 +1401,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="21"/>
@@ -1430,7 +1430,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -1450,7 +1450,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="21"/>
@@ -1461,7 +1461,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="21"/>
@@ -1472,7 +1472,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="21"/>
@@ -1501,7 +1501,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
@@ -1541,7 +1541,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T0P/xpdz/hoPAqRTiCs12OOLhUHKqeLezV6nlF5PfRhkR+6S4/gR5FoET8g2J6UbVykGHLEYj4vBhGgpzoA3bQ==" saltValue="+LK7v4U9x/O1hi6gPTbq1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RdpvHqzQsfnsWuwz0WPgeF2o6al6zz067xPTHY3LoKZFhwFErCKRLUNXxWJBxzzZdgvYMwGSPIZZl3dJspRs5A==" saltValue="GRHDUPPQC6GfNU8RR3rhcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -1643,78 +1643,78 @@
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="52" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="80"/>
       <c r="G4" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>23</v>
-      </c>
       <c r="J4" s="81" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K4" s="82"/>
       <c r="L4" s="83"/>
       <c r="M4" s="82" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N4" s="82"/>
       <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K5" s="63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M5" s="65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N5" s="63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O5" s="64" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">

--- a/forms/Form-1IN.xlsx
+++ b/forms/Form-1IN.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E566BB-8B13-43BD-99A3-C662EA0B0021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EDDF17-29DB-494C-979B-6844C23F2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -933,6 +933,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1259,7 +1260,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1373,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="84" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="3"/>
@@ -1541,7 +1542,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RdpvHqzQsfnsWuwz0WPgeF2o6al6zz067xPTHY3LoKZFhwFErCKRLUNXxWJBxzzZdgvYMwGSPIZZl3dJspRs5A==" saltValue="GRHDUPPQC6GfNU8RR3rhcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iOKfbdcmeWi4hcyxm31mCDxvD5KMZS01k70a3XlcvF5eyAlQQzgWlUBiV5+wUYUDBDzJU1eyOARyv7NYTpybpQ==" saltValue="LPqyiwuFDfwFQO52VxUdaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>

--- a/forms/Form-1IN.xlsx
+++ b/forms/Form-1IN.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EDDF17-29DB-494C-979B-6844C23F2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D1C343-CC37-4DB6-852B-85B569A45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -933,7 +933,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1260,7 +1259,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1372,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="21" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="3"/>
